--- a/first_version_130_validate.xlsx
+++ b/first_version_130_validate.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,32 +479,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Head Cashier</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cashiers</t>
+          <t>Software Quality Assurance Engineers and Testers</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41-2011.00</t>
+          <t>13-2011.01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Library Technical Assistant II</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Software Quality Assurance Engineers and Testers</t>
+          <t>Library Assistants, Clerical</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -519,12 +519,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Library Technical Assistant II</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Library Assistants, Clerical</t>
+          <t>Software Quality Assurance Engineers and Testers</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -539,12 +539,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>R&amp;D Engineer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Software Quality Assurance Engineers and Testers</t>
+          <t>Rail Yard Engineers, Dinkey Operators, and Hostlers</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -559,12 +559,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R&amp;D Engineer</t>
+          <t>Lead Engineering Manager</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rail Yard Engineers, Dinkey Operators, and Hostlers</t>
+          <t>Architectural and Engineering Managers</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -579,32 +579,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hotel auditor</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Auditors</t>
+          <t>Business Intelligence Analysts</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13-2011.02</t>
+          <t>13-2011.01</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lead Engineering Manager</t>
+          <t>Tier 3 Lync Team Systems Engineer</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Architectural and Engineering Managers</t>
+          <t>Solar Energy Systems Engineers</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -619,12 +619,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Molecular Biologist I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Business Intelligence Analysts</t>
+          <t>Molecular and Cellular Biologists</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -639,12 +639,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tier 3 Lync Team Systems Engineer</t>
+          <t>Sr. Systems Administrator</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Solar Energy Systems Engineers</t>
+          <t>Network and Computer Systems Administrators</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -659,12 +659,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Molecular Biologist I</t>
+          <t>Controls Software Engineer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Molecular and Cellular Biologists</t>
+          <t>Software Quality Assurance Engineers and Testers</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -679,32 +679,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sr. Systems Administrator</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Network and Computer Systems Administrators</t>
+          <t>Executive Secretaries and Executive Administrative Assistants</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>43-6011.00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Controls Software Engineer</t>
+          <t>Product Support Supervisor</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Software Quality Assurance Engineers and Testers</t>
+          <t>First-Line Supervisors of Office and Administrative Support Workers</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -719,12 +719,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Product Support Supervisor</t>
+          <t>Casino dealer</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>First-Line Supervisors of Office and Administrative Support Workers</t>
+          <t>Gaming Dealers</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -739,12 +739,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Casino dealer</t>
+          <t>Executive Chef</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Gaming Dealers</t>
+          <t>Chief Executives</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -759,12 +759,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Executive Chef</t>
+          <t>C++ Software Engineer</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chief Executives</t>
+          <t>Software Quality Assurance Engineers and Testers</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -779,12 +779,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C++ Software Engineer</t>
+          <t>Instrument man</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Software Quality Assurance Engineers and Testers</t>
+          <t>Musical Instrument Repairers and Tuners</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -799,32 +799,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Clinical Pharmacist</t>
+          <t>Real Estate Agent</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pharmacists</t>
+          <t>Real Estate Sales Agents</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>29-1051.00</t>
+          <t>13-2011.01</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Instrument man</t>
+          <t>Systems Programmer/Web Developer</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Musical Instrument Repairers and Tuners</t>
+          <t>Software Developers, Systems Software</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -839,12 +839,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Real Estate Agent</t>
+          <t>Quality Engineer</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Real Estate Sales Agents</t>
+          <t>Software Quality Assurance Engineers and Testers</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -859,72 +859,72 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Systems Programmer/Web Developer</t>
+          <t>Teller</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Software Developers, Systems Software</t>
+          <t>Tellers</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>43-3071.00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Quality Engineer</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Software Quality Assurance Engineers and Testers</t>
+          <t>General and Operations Managers</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>11-1021.00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Multiple roles</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transportation Managers</t>
+          <t>Multiple Machine Tool Setters, Operators, and Tenders, Metal and Plastic</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>11-3071.01</t>
+          <t>13-2011.01</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Multiple roles</t>
+          <t>Application Developer</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Multiple Machine Tool Setters, Operators, and Tenders, Metal and Plastic</t>
+          <t>Software Developers, Applications</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -939,20 +939,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Application Developer</t>
+          <t>20000000</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Software Developers, Applications</t>
+          <t>Chief Executives</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>11-1011.00</t>
         </is>
       </c>
     </row>
@@ -964,15 +964,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Management Analysts</t>
+          <t>Logistics Analysts</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>13-1111.00</t>
+          <t>13-1081.02</t>
         </is>
       </c>
     </row>
@@ -999,32 +999,32 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Physician Assistant</t>
+          <t>Adjuster</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Physician Assistants</t>
+          <t>Insurance Adjusters, Examiners, and Investigators</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>13-1031.02</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Senior Network Administrator</t>
+          <t>Physician Assistant</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Network and Computer Systems Administrators</t>
+          <t>Physician Assistants</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1039,12 +1039,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Applecare At Home Advisor</t>
+          <t>Senior Network Administrator</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Farm and Home Management Advisors</t>
+          <t>Network and Computer Systems Administrators</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1059,12 +1059,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sr. Product Manager</t>
+          <t>Applecare At Home Advisor</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Biofuels/Biodiesel Technology and Product Development Managers</t>
+          <t>Farm and Home Management Advisors</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1079,12 +1079,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Distribution Transition Manager</t>
+          <t>Sr. Product Manager</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Storage and Distribution Managers</t>
+          <t>Biofuels/Biodiesel Technology and Product Development Managers</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1099,12 +1099,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sales Manager</t>
+          <t>Distribution Transition Manager</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sales Managers</t>
+          <t>Storage and Distribution Managers</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1119,12 +1119,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Electrical Engineer</t>
+          <t>Sales Manager</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Electrical Engineers</t>
+          <t>Sales Managers</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1139,12 +1139,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Manufacturing Technician III</t>
+          <t>Electrical Engineer</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Manufacturing Production Technicians</t>
+          <t>Electrical Engineers</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1159,12 +1159,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IT Systems Administrator</t>
+          <t>Manufacturing Technician III</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Network and Computer Systems Administrators</t>
+          <t>Manufacturing Production Technicians</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1179,72 +1179,72 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>IT Systems Administrator</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Talent Directors</t>
+          <t>Network and Computer Systems Administrators</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>27-2012.04</t>
+          <t>13-2011.01</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Business Analyst / Consultant</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Business Intelligence Analysts</t>
+          <t>Emergency Management Directors</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>11-9161.00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Theoretical Physicist</t>
+          <t>Service Technician</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Physicists</t>
+          <t>Geographic Information Systems Technicians</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>15-1199.05</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Document Management Specialist</t>
+          <t>Business Analyst / Consultant</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Document Management Specialists</t>
+          <t>Business Intelligence Analysts</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1259,12 +1259,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Senior Slot Tech</t>
+          <t>Theoretical Physicist</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Slot Supervisors</t>
+          <t>Physicists</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1279,12 +1279,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Professional Photographer</t>
+          <t>Document Management Specialist</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Photographers</t>
+          <t>Document Management Specialists</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1299,12 +1299,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Superintendent</t>
+          <t>Senior Slot Tech</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Postmasters and Mail Superintendents</t>
+          <t>Slot Supervisors</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1319,12 +1319,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Real Estate Broker</t>
+          <t>Professional Photographer</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Real Estate Brokers</t>
+          <t>Photographers</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1339,52 +1339,52 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Superintendent</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Software Developers, Systems Software</t>
+          <t>Postmasters and Mail Superintendents</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>15-1133.00</t>
+          <t>13-2011.01</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>News Producer</t>
+          <t>Client Services</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Producers</t>
+          <t>Bus Drivers, School or Special Client</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>27-2012.01</t>
+          <t>53-3022.00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Photographer</t>
+          <t>Real Estate Broker</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Photographers</t>
+          <t>Real Estate Brokers</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1399,52 +1399,52 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Dairy Manager (in Training)</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Training and Development Managers</t>
+          <t>Software Developers, Applications</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>15-1132.00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>Information Technology Technician</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Teacher Assistants</t>
+          <t>Geographic Information Systems Technicians</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>25-9041.00</t>
+          <t>15-1199.05</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Business Manager</t>
+          <t>Photographer</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Agents and Business Managers of Artists, Performers, and Athletes</t>
+          <t>Photographers</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1459,32 +1459,32 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Cook</t>
+          <t>Public Services</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cooks, Restaurant</t>
+          <t>Public Relations and Fundraising Managers</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>35-2014.00</t>
+          <t>11-2031.00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Senior Validation Engineer</t>
+          <t>Dairy Manager (in Training)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Validation Engineers</t>
+          <t>Training and Development Managers</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1499,52 +1499,52 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Locksmith Technition</t>
+          <t>Operation</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Locksmiths and Safe Repairers</t>
+          <t>Chief Executives</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>11-1011.00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Assembler</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Team Assemblers</t>
+          <t>Business Teachers, Postsecondary</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>51-2092.00</t>
+          <t>25-1011.00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Senior Product Manager</t>
+          <t>Business Manager</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Biofuels/Biodiesel Technology and Product Development Managers</t>
+          <t>Agents and Business Managers of Artists, Performers, and Athletes</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1559,132 +1559,132 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Cardiac Monitor Technician</t>
+          <t>Cook</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cardiovascular Technologists and Technicians</t>
+          <t>Chefs and Head Cooks</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>35-1011.00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Senior Validation Engineer</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Water/Wastewater Engineers</t>
+          <t>Validation Engineers</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>17-2081.01</t>
+          <t>13-2011.01</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Producer, Writer</t>
+          <t>Locksmith Technition</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Producers</t>
+          <t>Locksmiths and Safe Repairers</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>27-2012.01</t>
+          <t>13-2011.01</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>food service leader</t>
+          <t>Assembler</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Food Service Managers</t>
+          <t>Aircraft Structure, Surfaces, Rigging, and Systems Assemblers</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>51-2011.00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Administrator</t>
+          <t>Senior Product Manager</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Web Administrators</t>
+          <t>Biofuels/Biodiesel Technology and Product Development Managers</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>15-1199.03</t>
+          <t>13-2011.01</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Intelligence SME</t>
+          <t>Computer System Specialist</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Intelligence Analysts</t>
+          <t>Computer User Support Specialists</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>33-3021.06</t>
+          <t>15-1151.00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>System Test Engineer II</t>
+          <t>Cardiac Monitor Technician</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Solar Energy Systems Engineers</t>
+          <t>Cardiovascular Technologists and Technicians</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1699,52 +1699,52 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Water System Operator</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Water and Wastewater Treatment Plant and System Operators</t>
+          <t>Logistics Engineers</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>13-1081.01</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Process Improvement Consultant II</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Photographic Process Workers and Processing Machine Operators</t>
+          <t>Wind Energy Project Managers</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>11-9199.10</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sr. VP Services Business Unit</t>
+          <t>food service leader</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Service Unit Operators, Oil, Gas, and Mining</t>
+          <t>Food Service Managers</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1759,32 +1759,32 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ITS Help Desk</t>
+          <t>Administrator</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hotel, Motel, and Resort Desk Clerks</t>
+          <t>Education Administrators, Preschool and Childcare Center/Program</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>11-9031.00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Scale Master</t>
+          <t>System Test Engineer II</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Automotive Master Mechanics</t>
+          <t>Solar Energy Systems Engineers</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1799,12 +1799,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Digital Marketing Specialist</t>
+          <t>Water System Operator</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Market Research Analysts and Marketing Specialists</t>
+          <t>Water and Wastewater Treatment Plant and System Operators</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1819,12 +1819,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Chauffeur</t>
+          <t>Process Improvement Consultant II</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Taxi Drivers and Chauffeurs</t>
+          <t>Photographic Process Workers and Processing Machine Operators</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1839,32 +1839,32 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sales Operations Manager</t>
+          <t>Sr. VP Services Business Unit</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Sales Managers</t>
+          <t>Service Unit Operators, Oil, Gas, and Mining</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>11-2022.00</t>
+          <t>13-2011.01</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Civil Engineer</t>
+          <t>ITS Help Desk</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Civil Engineers</t>
+          <t>Hotel, Motel, and Resort Desk Clerks</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1879,12 +1879,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Server</t>
+          <t>Scale Master</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Food Servers, Nonrestaurant</t>
+          <t>Automotive Master Mechanics</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1899,12 +1899,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Probation Parole Officer</t>
+          <t>Digital Marketing Specialist</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Probation Officers and Correctional Treatment Specialists</t>
+          <t>Market Research Analysts and Marketing Specialists</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1919,12 +1919,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>General Manager</t>
+          <t>Chauffeur</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>General and Operations Managers</t>
+          <t>Taxi Drivers and Chauffeurs</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1939,32 +1939,32 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Field Radio Operator</t>
+          <t>Sales Operations Manager</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Radio Operators</t>
+          <t>Sales Managers</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>11-2022.00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Purchasing Manager</t>
+          <t>Civil Engineer</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Purchasing Managers</t>
+          <t>Civil Engineers</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1979,12 +1979,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Low Voltage System Installer</t>
+          <t>Server</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Security and Fire Alarm Systems Installers</t>
+          <t>Food Servers, Nonrestaurant</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1999,12 +1999,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>Probation Parole Officer</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cardiovascular Technologists and Technicians</t>
+          <t>Probation Officers and Correctional Treatment Specialists</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2019,32 +2019,32 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Electricians Helper</t>
+          <t>General Manager</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Electricians</t>
+          <t>General and Operations Managers</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>47-2111.00</t>
+          <t>13-2011.01</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Database Administrator</t>
+          <t>Field Radio Operator</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Database Administrators</t>
+          <t>Radio Operators</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2059,12 +2059,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Senior Loan Officer</t>
+          <t>Purchasing Manager</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Loan Officers</t>
+          <t>Purchasing Managers</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2079,12 +2079,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Graphic Design Consultant</t>
+          <t>Low Voltage System Installer</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Graphic Designers</t>
+          <t>Security and Fire Alarm Systems Installers</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2099,12 +2099,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Software Quality Assurance Analyst 1</t>
+          <t>Cardiologist</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Software Quality Assurance Engineers and Testers</t>
+          <t>Cardiovascular Technologists and Technicians</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2119,72 +2119,72 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Database Administrator</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Traffic Technicians</t>
+          <t>Database Administrators</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>53-6041.00</t>
+          <t>13-2011.01</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Senior Loan Officer</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Teacher Assistants</t>
+          <t>Loan Officers</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>25-9041.00</t>
+          <t>13-2011.01</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Auditor</t>
+          <t>Graphic Design Consultant</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Energy Auditors</t>
+          <t>Graphic Designers</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>13-1199.01</t>
+          <t>13-2011.01</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Estimator</t>
+          <t>Software Quality Assurance Analyst 1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cost Estimators</t>
+          <t>Software Quality Assurance Engineers and Testers</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2199,72 +2199,72 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Technician</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Accountants</t>
+          <t>Geographic Information Systems Technicians</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>27-2011.00</t>
+          <t>15-1199.05</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>FedEx Delivery Driver</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Light Truck or Delivery Services Drivers</t>
+          <t>Business Teachers, Postsecondary</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>25-1011.00</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Garden of Hope Propagator</t>
+          <t>Auditor</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Fish and Game Wardens</t>
+          <t>Energy Auditors</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>13-1199.01</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Answering Service Operator</t>
+          <t>Estimator</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Switchboard Operators, Including Answering Service</t>
+          <t>Cost Estimators</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2279,32 +2279,32 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Programmer</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Computer Programmers</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>15-1131.00</t>
+          <t>27-2011.00</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Telecommunications Specialist</t>
+          <t>FedEx Delivery Driver</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Telecommunications Engineering Specialists</t>
+          <t>Light Truck or Delivery Services Drivers</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2319,16 +2319,16 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Fund Accountant</t>
+          <t>Garden of Hope Propagator</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Accountants</t>
+          <t>Fish and Game Wardens</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2339,52 +2339,52 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Quality Control</t>
+          <t>Answering Service Operator</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Quality Control Analysts</t>
+          <t>Switchboard Operators, Including Answering Service</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>19-4099.01</t>
+          <t>13-2011.01</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Machinist</t>
+          <t>Programmer</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Machinists</t>
+          <t>Computer Programmers</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>15-1131.00</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Premier Service Agent</t>
+          <t>Telecommunications Specialist</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Sales Agents, Financial Services</t>
+          <t>Telecommunications Engineering Specialists</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2399,52 +2399,52 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Inspector</t>
+          <t>Quality Control</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Fire Inspectors</t>
+          <t>Chief Executives</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>33-2021.01</t>
+          <t>11-1011.00</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Operator</t>
+          <t>Machinist</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Telephone Operators</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>43-2021.00</t>
+          <t>13-2011.01</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Graduate Teaching Assistant</t>
+          <t>Premier Service Agent</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Graduate Teaching Assistants</t>
+          <t>Sales Agents, Financial Services</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2459,52 +2459,52 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Industrial Maintenance Technician</t>
+          <t>Inspector</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Industrial Engineering Technicians</t>
+          <t>Environmental Compliance Inspectors</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>13-1041.01</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Professional Expert</t>
+          <t>Operator</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Explosives Workers, Ordnance Handling Experts, and Blasters</t>
+          <t>Radio Operators</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>27-4013.00</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Oral and Maxillofacial Surgeon</t>
+          <t>Graduate Teaching Assistant</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Oral and Maxillofacial Surgeons</t>
+          <t>Graduate Teaching Assistants</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2519,32 +2519,32 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Operations Manager</t>
+          <t>Industrial Maintenance Technician</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>General and Operations Managers</t>
+          <t>Industrial Engineering Technicians</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>11-1021.00</t>
+          <t>13-2011.01</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Security Guard</t>
+          <t>Professional Expert</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Security Guards</t>
+          <t>Explosives Workers, Ordnance Handling Experts, and Blasters</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2559,12 +2559,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Continuous Improvement Consultant</t>
+          <t>Oral and Maxillofacial Surgeon</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Continuous Mining Machine Operators</t>
+          <t>Oral and Maxillofacial Surgeons</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2579,32 +2579,32 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Controller</t>
+          <t>Operations Manager</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Treasurers and Controllers</t>
+          <t>General and Operations Managers</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>11-3031.01</t>
+          <t>11-1021.00</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Chief Operating Officer</t>
+          <t>Security Guard</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Chief Sustainability Officers</t>
+          <t>Security Guards</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2619,32 +2619,32 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Geneticist</t>
+          <t>Service Writer</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Geneticists</t>
+          <t>Technical Writers</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>27-3042.00</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Information Security</t>
+          <t>Continuous Improvement Consultant</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Information Security Analysts</t>
+          <t>Continuous Mining Machine Operators</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2659,32 +2659,32 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Production Manager</t>
+          <t>Controller</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Industrial Production Managers</t>
+          <t>Treasurers and Controllers</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>11-3051.00</t>
+          <t>11-3031.01</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>team lead</t>
+          <t>Chief Operating Officer</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Team Assemblers</t>
+          <t>Chief Sustainability Officers</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2699,32 +2699,32 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Engineering Manager</t>
+          <t>Financial Controller</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Architectural and Engineering Managers</t>
+          <t>Treasurers and Controllers</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>11-3031.01</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Agile Coach</t>
+          <t>Geneticist</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Coaches and Scouts</t>
+          <t>Geneticists</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2739,12 +2739,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Information Security</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Graphic Designers</t>
+          <t>Information Security Analysts</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2759,32 +2759,32 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Hardware Technician</t>
+          <t>Production Manager</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Computer Hardware Engineers</t>
+          <t>Industrial Production Managers</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>11-3051.00</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Warehouse Lead</t>
+          <t>team lead</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Stock Clerks- Stockroom, Warehouse, or Storage Yard</t>
+          <t>Team Assemblers</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2799,12 +2799,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Financial Advisor</t>
+          <t>Engineering Manager</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Personal Financial Advisors</t>
+          <t>Architectural and Engineering Managers</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2819,12 +2819,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Graduate Student</t>
+          <t>Agile Coach</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Graduate Teaching Assistants</t>
+          <t>Coaches and Scouts</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2839,12 +2839,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Student Activities Director</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Directors, Religious Activities and Education</t>
+          <t>Graphic Designers</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2859,12 +2859,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>PHD Graduate Student</t>
+          <t>Hardware Technician</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Graduate Teaching Assistants</t>
+          <t>Computer Hardware Engineers</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2879,52 +2879,52 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Senior Global Product Manager</t>
+          <t>Dispatcher</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Biofuels/Biodiesel Technology and Product Development Managers</t>
+          <t>Police, Fire, and Ambulance Dispatchers</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>43-5031.00</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Senior Parts Expeditor</t>
+          <t>COLLECTOR</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Parts Salespersons</t>
+          <t>Tax Examiners and Collectors, and Revenue Agents</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>13-2081.00</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Senior Business Analyst</t>
+          <t>Warehouse Lead</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Business Intelligence Analysts</t>
+          <t>Stock Clerks- Stockroom, Warehouse, or Storage Yard</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2939,12 +2939,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sr Quality Engineer</t>
+          <t>Financial Advisor</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Software Quality Assurance Engineers and Testers</t>
+          <t>Personal Financial Advisors</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -2959,32 +2959,32 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Backroom Team Member</t>
+          <t>Biologist</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Team Assemblers</t>
+          <t>Biologists</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>13-2011.01</t>
+          <t>19-1020.01</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>law enforcement</t>
+          <t>Graduate Student</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Criminal Justice and Law Enforcement Teachers, Postsecondary</t>
+          <t>Graduate Teaching Assistants</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -2999,12 +2999,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Research and Development Engineer</t>
+          <t>Student Activities Director</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Rail Yard Engineers, Dinkey Operators, and Hostlers</t>
+          <t>Directors, Religious Activities and Education</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3019,12 +3019,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Team Leader</t>
+          <t>PHD Graduate Student</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Team Assemblers</t>
+          <t>Graduate Teaching Assistants</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3039,12 +3039,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Performance Marketing Analyst</t>
+          <t>Senior Global Product Manager</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Market Research Analysts and Marketing Specialists</t>
+          <t>Biofuels/Biodiesel Technology and Product Development Managers</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -3059,18 +3059,238 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
+          <t>Senior Parts Expeditor</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Parts Salespersons</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>13-2011.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Senior Business Analyst</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Business Intelligence Analysts</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>13-2011.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Sr Quality Engineer</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Software Quality Assurance Engineers and Testers</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>13-2011.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Backroom Team Member</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Team Assemblers</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>13-2011.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Executive Assistant</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Executive Secretaries and Executive Administrative Assistants</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>2</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>43-6011.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>law enforcement</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Criminal Justice and Law Enforcement Teachers, Postsecondary</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>13-2011.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Research and Development Engineer</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Rail Yard Engineers, Dinkey Operators, and Hostlers</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>13-2011.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Team Leader</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Team Assemblers</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>13-2011.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Sales Representatives, Wholesale and Manufacturing, Technical and Scientific Products</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>41-4011.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Performance Marketing Analyst</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Market Research Analysts and Marketing Specialists</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>13-2011.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Truck Driver</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Heavy and Tractor-Trailer Truck Drivers</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>2</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>53-3032.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
           <t>Massage Therapist</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Massage Therapists</t>
         </is>
       </c>
-      <c r="C132" t="n">
-        <v>0</v>
-      </c>
-      <c r="D132" t="inlineStr">
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="inlineStr">
         <is>
           <t>13-2011.01</t>
         </is>
